--- a/ASND.xlsx
+++ b/ASND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CD021E-17E6-4067-8EDA-27E9799DB9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223101B9-4326-46AC-B1E5-F227C2B42466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15045" yWindow="3000" windowWidth="29190" windowHeight="15915" xr2:uid="{2734C5C3-33DF-4A68-91F9-B8E8FFD9BE4F}"/>
+    <workbookView xWindow="15915" yWindow="195" windowWidth="33150" windowHeight="20685" xr2:uid="{2734C5C3-33DF-4A68-91F9-B8E8FFD9BE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -374,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -396,21 +396,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,9 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,7 +427,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A4F32344-C8B8-4AF8-BE35-523C667707C8}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -855,7 +846,7 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -872,19 +863,19 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="K2" t="s">
@@ -898,17 +889,17 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <v>44433</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="18"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -918,13 +909,13 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="17"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
@@ -937,15 +928,15 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="19"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -958,13 +949,13 @@
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="19"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -976,13 +967,13 @@
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="23"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="19"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
@@ -995,51 +986,51 @@
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="23"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="23"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="23"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,23 +1275,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="T9" s="15">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="T9" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1358,12 +1349,12 @@
       <c r="N12" s="10">
         <v>10</v>
       </c>
-      <c r="T12" s="13">
-        <f t="shared" ref="T12:T13" si="1">SUM(G12:J12)</f>
+      <c r="T12" s="9">
+        <f t="shared" ref="T12" si="1">SUM(G12:J12)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="13">
-        <f t="shared" ref="U12:U13" si="2">SUM(K12:N12)</f>
+      <c r="U12" s="9">
+        <f t="shared" ref="U12" si="2">SUM(K12:N12)</f>
         <v>15</v>
       </c>
       <c r="V12" s="9">
@@ -1393,75 +1384,75 @@
         <v>161.0510000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
         <v>1.9</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="10">
         <v>12.3</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="10">
         <v>17.100000000000001</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="10">
         <f>+J13+5</f>
         <v>22.1</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="10">
         <f>+K13+5</f>
         <v>27.1</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="10">
         <f>+L13+5</f>
         <v>32.1</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="10">
         <f>+M13+5</f>
         <v>37.1</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="9">
         <f>SUM(G13:J13)</f>
         <v>35.700000000000003</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="9">
         <f>SUM(K13:N13)</f>
         <v>118.4</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="9">
         <f>+U13*2.5</f>
         <v>296</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="9">
         <f>+V13*1.5</f>
         <v>444</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="9">
         <f>+W13*1.3</f>
         <v>577.20000000000005</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="9">
         <f>+X13*1.3</f>
         <v>750.36000000000013</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z13" s="9">
         <f>+Y13*1.1</f>
         <v>825.39600000000019</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="9">
         <f>+Z13*1.1</f>
         <v>907.93560000000025</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB13" s="9">
         <f>+AA13*1.05</f>
         <v>953.33238000000028</v>
       </c>
@@ -1563,7 +1554,7 @@
         <v>13.340000000000002</v>
       </c>
       <c r="V15" s="9">
-        <f t="shared" ref="V15:AC15" si="5">+V14*0.1</f>
+        <f t="shared" ref="V15:AB15" si="5">+V14*0.1</f>
         <v>34.6</v>
       </c>
       <c r="W15" s="9">
@@ -2262,7 +2253,7 @@
       <c r="AD26" t="s">
         <v>63</v>
       </c>
-      <c r="AE26" s="26">
+      <c r="AE26" s="21">
         <v>0.09</v>
       </c>
     </row>
@@ -2270,7 +2261,7 @@
       <c r="AD27" t="s">
         <v>64</v>
       </c>
-      <c r="AE27" s="26">
+      <c r="AE27" s="21">
         <v>-0.01</v>
       </c>
     </row>

--- a/ASND.xlsx
+++ b/ASND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223101B9-4326-46AC-B1E5-F227C2B42466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDE7F42-8FBE-4935-B507-94F6D0C16D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15915" yWindow="195" windowWidth="33150" windowHeight="20685" xr2:uid="{2734C5C3-33DF-4A68-91F9-B8E8FFD9BE4F}"/>
+    <workbookView xWindow="-50100" yWindow="2280" windowWidth="22875" windowHeight="18315" xr2:uid="{2734C5C3-33DF-4A68-91F9-B8E8FFD9BE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,27 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0CE88FFB-E5D7-4C56-AFAF-949DB5590CBC}</author>
+  </authors>
+  <commentList>
+    <comment ref="Y13" authorId="0" shapeId="0" xr:uid="{0CE88FFB-E5D7-4C56-AFAF-949DB5590CBC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q124 guidance: 320-340m
+Q224 guidance: 220-240m!!!</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>Price</t>
   </si>
@@ -184,9 +203,6 @@
     <t>Q423</t>
   </si>
   <si>
-    <t>4/30/23 PDUFA</t>
-  </si>
-  <si>
     <t>ranibizumab</t>
   </si>
   <si>
@@ -236,6 +252,27 @@
   </si>
   <si>
     <t>NPV</t>
+  </si>
+  <si>
+    <t>Yorvipath</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>EURm</t>
+  </si>
+  <si>
+    <t>MOA</t>
   </si>
 </sst>
 </file>
@@ -245,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -264,6 +301,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -495,13 +538,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>59872</xdr:rowOff>
@@ -546,10 +589,16 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{ACC3FB49-5C7B-4BFE-B8C4-75712EBB28FF}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -587,7 +636,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -693,7 +742,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -835,18 +884,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Y13" dT="2024-09-05T02:18:36.27" personId="{ACC3FB49-5C7B-4BFE-B8C4-75712EBB28FF}" id="{0CE88FFB-E5D7-4C56-AFAF-949DB5590CBC}">
+    <text>Q124 guidance: 320-340m
+Q224 guidance: 220-240m!!!</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DE2054-6D94-40E2-B91A-78070665C073}">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -856,7 +914,8 @@
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
@@ -875,14 +934,17 @@
       <c r="F2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>112</v>
+      <c r="K2" s="1">
+        <v>126.75</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -899,92 +961,103 @@
       <c r="F3" s="14">
         <v>44433</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="K3" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="18"/>
+      <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="7">
-        <v>55.831561000000001</v>
+      <c r="K3" s="7">
+        <v>58.231000000000002</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <f>+K2*K3</f>
+        <v>7380.7792500000005</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="7">
-        <f>+L2*L3</f>
-        <v>6253.1348319999997</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="K5" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="17"/>
+      <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="7">
-        <f>608.33+311.48+15.338</f>
-        <v>935.14800000000002</v>
+      <c r="K5" s="7">
+        <v>259</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="19"/>
-      <c r="K6" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="19"/>
+      <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="7">
-        <v>533.14499999999998</v>
+      <c r="K6" s="7">
+        <f>219.052+432.19+21.397</f>
+        <v>672.63900000000001</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="19"/>
-      <c r="K7" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="19"/>
+      <c r="J7" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="7">
-        <f>+L4-L5+L6</f>
-        <v>5851.1318319999991</v>
+      <c r="K7" s="7">
+        <f>+K4-K5+K6</f>
+        <v>7794.4182500000006</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>15</v>
@@ -992,29 +1065,36 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="19"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
@@ -1022,15 +1102,26 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="20"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,30 +1129,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BFE991-EB13-4971-84D4-47487AF983B8}">
-  <dimension ref="A1:CG28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BFE991-EB13-4971-84D4-47487AF983B8}">
+  <dimension ref="A1:CJ28"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE23" sqref="AE23"/>
+      <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="5"/>
-    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="5"/>
+    <col min="34" max="34" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
@@ -1098,55 +1192,67 @@
       <c r="N2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q2">
+      <c r="O2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2">
         <v>2019</v>
       </c>
-      <c r="R2">
-        <f>+Q2+1</f>
+      <c r="U2">
+        <f>+T2+1</f>
         <v>2020</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:X2" si="0">+R2+1</f>
+      <c r="V2">
+        <f t="shared" ref="V2:AA2" si="0">+U2+1</f>
         <v>2021</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="Y2">
-        <f>+X2+1</f>
-        <v>2027</v>
-      </c>
-      <c r="Z2">
-        <f>+Y2+1</f>
-        <v>2028</v>
-      </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
-        <v>2029</v>
-      </c>
       <c r="AB2">
         <f>+AA2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AC2">
+        <f>+AB2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AD2">
+        <f>+AC2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AE2">
+        <f>+AD2+1</f>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1162,20 +1268,23 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="Q3" s="7">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="T3" s="7">
         <v>498</v>
       </c>
-      <c r="R3" s="7">
+      <c r="U3" s="7">
         <v>428</v>
       </c>
-      <c r="S3" s="7">
+      <c r="V3" s="7">
         <v>390</v>
       </c>
-      <c r="T3" s="7">
+      <c r="W3" s="7">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
@@ -1191,11 +1300,14 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="T4" s="7">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="W4" s="7">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
@@ -1211,11 +1323,14 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="T5" s="7">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="W5" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
@@ -1231,11 +1346,14 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="T6" s="7">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="W6" s="7">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>40</v>
       </c>
@@ -1251,11 +1369,14 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="T7" s="7">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="W7" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
@@ -1271,11 +1392,14 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="T8" s="7">
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="W8" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
@@ -1291,11 +1415,14 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="T9" s="7">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="W9" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
@@ -1311,11 +1438,14 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="T10" s="7">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="W10" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1328,8 +1458,11 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1343,48 +1476,58 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="10">
-        <v>5</v>
-      </c>
-      <c r="N12" s="10">
-        <v>10</v>
-      </c>
-      <c r="T12" s="9">
-        <f t="shared" ref="T12" si="1">SUM(G12:J12)</f>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="P12" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="Q12" s="10">
+        <f>+P12+5</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="R12" s="10">
+        <f>+Q12+5</f>
+        <v>15.2</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" ref="W12" si="1">SUM(G12:J12)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="9">
-        <f t="shared" ref="U12" si="2">SUM(K12:N12)</f>
-        <v>15</v>
-      </c>
-      <c r="V12" s="9">
+      <c r="X12" s="9">
+        <f t="shared" ref="X12" si="2">SUM(K12:N12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
         <v>50</v>
       </c>
-      <c r="W12" s="9">
+      <c r="Z12" s="9">
         <v>100</v>
-      </c>
-      <c r="X12" s="9">
-        <f>+W12*1.1</f>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="Y12" s="9">
-        <f>+X12*1.1</f>
-        <v>121.00000000000003</v>
-      </c>
-      <c r="Z12" s="9">
-        <f>+Y12*1.1</f>
-        <v>133.10000000000005</v>
       </c>
       <c r="AA12" s="9">
         <f>+Z12*1.1</f>
-        <v>146.41000000000008</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="AB12" s="9">
         <f>+AA12*1.1</f>
+        <v>121.00000000000003</v>
+      </c>
+      <c r="AC12" s="9">
+        <f>+AB12*1.1</f>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="AD12" s="9">
+        <f>+AC12*1.1</f>
+        <v>146.41000000000008</v>
+      </c>
+      <c r="AE12" s="9">
+        <f>+AD12*1.1</f>
         <v>161.0510000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
@@ -1405,59 +1548,71 @@
         <v>17.100000000000001</v>
       </c>
       <c r="K13" s="10">
-        <f>+J13+5</f>
-        <v>22.1</v>
+        <f>67.4-L13</f>
+        <v>31.500000000000007</v>
       </c>
       <c r="L13" s="10">
-        <f>+K13+5</f>
-        <v>27.1</v>
+        <v>35.9</v>
       </c>
       <c r="M13" s="10">
         <f>+L13+5</f>
-        <v>32.1</v>
+        <v>40.9</v>
       </c>
       <c r="N13" s="10">
         <f>+M13+5</f>
-        <v>37.1</v>
-      </c>
-      <c r="T13" s="9">
+        <v>45.9</v>
+      </c>
+      <c r="O13" s="10">
+        <f>91.2-P13</f>
+        <v>65</v>
+      </c>
+      <c r="P13" s="10">
+        <v>26.2</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>70</v>
+      </c>
+      <c r="R13" s="9">
+        <v>75</v>
+      </c>
+      <c r="W13" s="9">
         <f>SUM(G13:J13)</f>
         <v>35.700000000000003</v>
       </c>
-      <c r="U13" s="9">
+      <c r="X13" s="9">
         <f>SUM(K13:N13)</f>
-        <v>118.4</v>
-      </c>
-      <c r="V13" s="9">
-        <f>+U13*2.5</f>
-        <v>296</v>
-      </c>
-      <c r="W13" s="9">
-        <f>+V13*1.5</f>
-        <v>444</v>
-      </c>
-      <c r="X13" s="9">
-        <f>+W13*1.3</f>
-        <v>577.20000000000005</v>
+        <v>154.20000000000002</v>
       </c>
       <c r="Y13" s="9">
-        <f>+X13*1.3</f>
-        <v>750.36000000000013</v>
+        <f>SUM(O13:R13)</f>
+        <v>236.2</v>
       </c>
       <c r="Z13" s="9">
-        <f>+Y13*1.1</f>
-        <v>825.39600000000019</v>
+        <f>+Y13*1.5</f>
+        <v>354.29999999999995</v>
       </c>
       <c r="AA13" s="9">
-        <f>+Z13*1.1</f>
-        <v>907.93560000000025</v>
+        <f>+Z13*1.3</f>
+        <v>460.59</v>
       </c>
       <c r="AB13" s="9">
-        <f>+AA13*1.05</f>
-        <v>953.33238000000028</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AA13*1.3</f>
+        <v>598.76699999999994</v>
+      </c>
+      <c r="AC13" s="9">
+        <f>+AB13*1.1</f>
+        <v>658.64369999999997</v>
+      </c>
+      <c r="AD13" s="9">
+        <f>+AC13*1.1</f>
+        <v>724.50806999999998</v>
+      </c>
+      <c r="AE13" s="9">
+        <f>+AD13*1.05</f>
+        <v>760.73347350000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
@@ -1475,61 +1630,77 @@
         <v>17.100000000000001</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" ref="K14:N14" si="3">+K13+K12</f>
-        <v>22.1</v>
+        <f t="shared" ref="K14:R14" si="3">+K13+K12</f>
+        <v>31.500000000000007</v>
       </c>
       <c r="L14" s="12">
         <f t="shared" si="3"/>
-        <v>27.1</v>
+        <v>35.9</v>
       </c>
       <c r="M14" s="12">
         <f t="shared" si="3"/>
-        <v>37.1</v>
+        <v>40.9</v>
       </c>
       <c r="N14" s="12">
         <f t="shared" si="3"/>
-        <v>47.1</v>
-      </c>
-      <c r="T14" s="11">
-        <f>+T13+T12</f>
+        <v>45.9</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="3"/>
+        <v>66.498999999999995</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="3"/>
+        <v>31.4</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="3"/>
+        <v>80.2</v>
+      </c>
+      <c r="R14" s="12">
+        <f t="shared" si="3"/>
+        <v>90.2</v>
+      </c>
+      <c r="W14" s="11">
+        <f>+W13+W12</f>
         <v>35.700000000000003</v>
       </c>
-      <c r="U14" s="11">
-        <f>+U13+U12</f>
-        <v>133.4</v>
-      </c>
-      <c r="V14" s="11">
-        <f t="shared" ref="V14:AB14" si="4">+V13+V12</f>
-        <v>346</v>
-      </c>
-      <c r="W14" s="11">
-        <f t="shared" si="4"/>
-        <v>544</v>
-      </c>
       <c r="X14" s="11">
-        <f t="shared" si="4"/>
-        <v>687.2</v>
+        <f>+X13+X12</f>
+        <v>154.20000000000002</v>
       </c>
       <c r="Y14" s="11">
-        <f t="shared" si="4"/>
-        <v>871.36000000000013</v>
+        <f t="shared" ref="Y14:AE14" si="4">+Y13+Y12</f>
+        <v>286.2</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="4"/>
-        <v>958.49600000000021</v>
+        <v>454.29999999999995</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="4"/>
-        <v>1054.3456000000003</v>
+        <v>570.59</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="4"/>
-        <v>1114.3833800000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>719.76699999999994</v>
+      </c>
+      <c r="AC14" s="11">
+        <f t="shared" si="4"/>
+        <v>791.74369999999999</v>
+      </c>
+      <c r="AD14" s="11">
+        <f t="shared" si="4"/>
+        <v>870.91807000000006</v>
+      </c>
+      <c r="AE14" s="11">
+        <f t="shared" si="4"/>
+        <v>921.7844735000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1545,46 +1716,51 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
-      <c r="T15" s="9">
-        <f>+T14*0.1</f>
+      <c r="O15" s="10">
+        <v>7.569</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="W15" s="9">
+        <f>+W14*0.1</f>
         <v>3.5700000000000003</v>
       </c>
-      <c r="U15" s="9">
-        <f>+U14*0.1</f>
-        <v>13.340000000000002</v>
-      </c>
-      <c r="V15" s="9">
-        <f t="shared" ref="V15:AB15" si="5">+V14*0.1</f>
-        <v>34.6</v>
-      </c>
-      <c r="W15" s="9">
-        <f t="shared" si="5"/>
-        <v>54.400000000000006</v>
-      </c>
       <c r="X15" s="9">
-        <f t="shared" si="5"/>
-        <v>68.720000000000013</v>
+        <f>+X14*0.1</f>
+        <v>15.420000000000002</v>
       </c>
       <c r="Y15" s="9">
-        <f t="shared" si="5"/>
-        <v>87.136000000000024</v>
+        <f t="shared" ref="Y15:AE15" si="5">+Y14*0.1</f>
+        <v>28.62</v>
       </c>
       <c r="Z15" s="9">
         <f t="shared" si="5"/>
-        <v>95.849600000000024</v>
+        <v>45.43</v>
       </c>
       <c r="AA15" s="9">
         <f t="shared" si="5"/>
-        <v>105.43456000000003</v>
+        <v>57.059000000000005</v>
       </c>
       <c r="AB15" s="9">
         <f t="shared" si="5"/>
-        <v>111.43833800000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>71.976699999999994</v>
+      </c>
+      <c r="AC15" s="9">
+        <f t="shared" si="5"/>
+        <v>79.17437000000001</v>
+      </c>
+      <c r="AD15" s="9">
+        <f t="shared" si="5"/>
+        <v>87.091807000000017</v>
+      </c>
+      <c r="AE15" s="9">
+        <f t="shared" si="5"/>
+        <v>92.178447350000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1599,48 +1775,57 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="M16" s="10">
+        <f>+M14-M15</f>
+        <v>40.9</v>
+      </c>
       <c r="N16" s="10"/>
-      <c r="T16" s="9">
-        <f>+T14-T15</f>
+      <c r="O16" s="10">
+        <f>+O14-O15</f>
+        <v>58.929999999999993</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="W16" s="9">
+        <f>+W14-W15</f>
         <v>32.130000000000003</v>
       </c>
-      <c r="U16" s="9">
-        <f>+U14-U15</f>
-        <v>120.06</v>
-      </c>
-      <c r="V16" s="9">
-        <f t="shared" ref="V16:AB16" si="6">+V14-V15</f>
-        <v>311.39999999999998</v>
-      </c>
-      <c r="W16" s="9">
-        <f t="shared" si="6"/>
-        <v>489.6</v>
-      </c>
       <c r="X16" s="9">
-        <f t="shared" si="6"/>
-        <v>618.48</v>
+        <f>+X14-X15</f>
+        <v>138.78000000000003</v>
       </c>
       <c r="Y16" s="9">
-        <f t="shared" si="6"/>
-        <v>784.22400000000016</v>
+        <f t="shared" ref="Y16:AE16" si="6">+Y14-Y15</f>
+        <v>257.58</v>
       </c>
       <c r="Z16" s="9">
         <f t="shared" si="6"/>
-        <v>862.6464000000002</v>
+        <v>408.86999999999995</v>
       </c>
       <c r="AA16" s="9">
         <f t="shared" si="6"/>
-        <v>948.9110400000003</v>
+        <v>513.53100000000006</v>
       </c>
       <c r="AB16" s="9">
         <f t="shared" si="6"/>
-        <v>1002.9450420000004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:85" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>647.79029999999989</v>
+      </c>
+      <c r="AC16" s="9">
+        <f t="shared" si="6"/>
+        <v>712.56933000000004</v>
+      </c>
+      <c r="AD16" s="9">
+        <f t="shared" si="6"/>
+        <v>783.82626300000004</v>
+      </c>
+      <c r="AE16" s="9">
+        <f t="shared" si="6"/>
+        <v>829.60602615000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:88" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1656,10 +1841,15 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="2:85" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="10">
+        <v>70.686999999999998</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="2:88" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1675,41 +1865,46 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
-      <c r="U18" s="9">
+      <c r="O18" s="10">
+        <v>66.783000000000001</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="X18" s="9">
         <v>200</v>
       </c>
-      <c r="V18" s="9">
-        <f>+U18*1.01</f>
+      <c r="Y18" s="9">
+        <f>+X18*1.01</f>
         <v>202</v>
       </c>
-      <c r="W18" s="9">
-        <f t="shared" ref="W18:AB18" si="7">+V18*1.01</f>
+      <c r="Z18" s="9">
+        <f t="shared" ref="Z18:AE18" si="7">+Y18*1.01</f>
         <v>204.02</v>
       </c>
-      <c r="X18" s="9">
+      <c r="AA18" s="9">
         <f t="shared" si="7"/>
         <v>206.06020000000001</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="AB18" s="9">
         <f t="shared" si="7"/>
         <v>208.120802</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="AC18" s="9">
         <f t="shared" si="7"/>
         <v>210.20201001999999</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AD18" s="9">
         <f t="shared" si="7"/>
         <v>212.3040301202</v>
       </c>
-      <c r="AB18" s="9">
+      <c r="AE18" s="9">
         <f t="shared" si="7"/>
         <v>214.42707042140199</v>
       </c>
     </row>
-    <row r="19" spans="2:85" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:88" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1726,42 +1921,48 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
-      <c r="U19" s="9">
-        <f>+U18</f>
+      <c r="O19" s="10">
+        <f>+O17+O18</f>
+        <v>137.47</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="X19" s="9">
+        <f>+X18</f>
         <v>200</v>
       </c>
-      <c r="V19" s="9">
-        <f t="shared" ref="V19:AB19" si="8">+V18</f>
+      <c r="Y19" s="9">
+        <f t="shared" ref="Y19:AE19" si="8">+Y18</f>
         <v>202</v>
       </c>
-      <c r="W19" s="9">
+      <c r="Z19" s="9">
         <f t="shared" si="8"/>
         <v>204.02</v>
       </c>
-      <c r="X19" s="9">
+      <c r="AA19" s="9">
         <f t="shared" si="8"/>
         <v>206.06020000000001</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="AB19" s="9">
         <f t="shared" si="8"/>
         <v>208.120802</v>
       </c>
-      <c r="Z19" s="9">
+      <c r="AC19" s="9">
         <f t="shared" si="8"/>
         <v>210.20201001999999</v>
       </c>
-      <c r="AA19" s="9">
+      <c r="AD19" s="9">
         <f t="shared" si="8"/>
         <v>212.3040301202</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AE19" s="9">
         <f t="shared" si="8"/>
         <v>214.42707042140199</v>
       </c>
     </row>
-    <row r="20" spans="2:85" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:88" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1778,51 +1979,48 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
-      <c r="U20" s="9">
-        <f>+U16-U19</f>
-        <v>-79.94</v>
-      </c>
-      <c r="V20" s="9">
-        <f t="shared" ref="V20:AB20" si="9">+V16-V19</f>
-        <v>109.39999999999998</v>
-      </c>
-      <c r="W20" s="9">
-        <f t="shared" si="9"/>
-        <v>285.58000000000004</v>
-      </c>
+      <c r="O20" s="10">
+        <f>+O16-O19</f>
+        <v>-78.540000000000006</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
       <c r="X20" s="9">
-        <f t="shared" si="9"/>
-        <v>412.41980000000001</v>
+        <f>+X16-X19</f>
+        <v>-61.21999999999997</v>
       </c>
       <c r="Y20" s="9">
-        <f t="shared" si="9"/>
-        <v>576.10319800000013</v>
+        <f t="shared" ref="Y20:AE20" si="9">+Y16-Y19</f>
+        <v>55.579999999999984</v>
       </c>
       <c r="Z20" s="9">
         <f t="shared" si="9"/>
-        <v>652.44438998000021</v>
+        <v>204.84999999999994</v>
       </c>
       <c r="AA20" s="9">
         <f t="shared" si="9"/>
-        <v>736.60700987980033</v>
+        <v>307.47080000000005</v>
       </c>
       <c r="AB20" s="9">
         <f t="shared" si="9"/>
-        <v>788.51797157859846</v>
-      </c>
-    </row>
-    <row r="21" spans="2:85" x14ac:dyDescent="0.2">
+        <v>439.66949799999986</v>
+      </c>
+      <c r="AC20" s="9">
+        <f t="shared" si="9"/>
+        <v>502.36731998000005</v>
+      </c>
+      <c r="AD20" s="9">
+        <f t="shared" si="9"/>
+        <v>571.52223287980007</v>
+      </c>
+      <c r="AE20" s="9">
+        <f t="shared" si="9"/>
+        <v>615.17895572859811</v>
+      </c>
+    </row>
+    <row r="21" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U21" s="9">
-        <v>0</v>
-      </c>
-      <c r="V21" s="9">
-        <v>0</v>
-      </c>
-      <c r="W21" s="9">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="X21" s="9">
         <v>0</v>
@@ -1839,407 +2037,407 @@
       <c r="AB21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:85" x14ac:dyDescent="0.2">
+      <c r="AC21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="U22" s="9">
-        <f>+U20+U21</f>
-        <v>-79.94</v>
-      </c>
-      <c r="V22" s="9">
-        <f t="shared" ref="V22:AB22" si="10">+V20+V21</f>
-        <v>109.39999999999998</v>
-      </c>
-      <c r="W22" s="9">
-        <f t="shared" si="10"/>
-        <v>285.58000000000004</v>
+        <v>58</v>
       </c>
       <c r="X22" s="9">
-        <f t="shared" si="10"/>
-        <v>412.41980000000001</v>
+        <f>+X20+X21</f>
+        <v>-61.21999999999997</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" si="10"/>
-        <v>576.10319800000013</v>
+        <f t="shared" ref="Y22:AE22" si="10">+Y20+Y21</f>
+        <v>55.579999999999984</v>
       </c>
       <c r="Z22" s="9">
         <f t="shared" si="10"/>
-        <v>652.44438998000021</v>
+        <v>204.84999999999994</v>
       </c>
       <c r="AA22" s="9">
         <f t="shared" si="10"/>
-        <v>736.60700987980033</v>
+        <v>307.47080000000005</v>
       </c>
       <c r="AB22" s="9">
         <f t="shared" si="10"/>
-        <v>788.51797157859846</v>
-      </c>
-    </row>
-    <row r="23" spans="2:85" x14ac:dyDescent="0.2">
+        <v>439.66949799999986</v>
+      </c>
+      <c r="AC22" s="9">
+        <f t="shared" si="10"/>
+        <v>502.36731998000005</v>
+      </c>
+      <c r="AD22" s="9">
+        <f t="shared" si="10"/>
+        <v>571.52223287980007</v>
+      </c>
+      <c r="AE22" s="9">
+        <f t="shared" si="10"/>
+        <v>615.17895572859811</v>
+      </c>
+    </row>
+    <row r="23" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="U23" s="9">
+        <v>57</v>
+      </c>
+      <c r="X23" s="9">
         <v>0</v>
       </c>
-      <c r="V23" s="9">
-        <f>+V22*0.05</f>
-        <v>5.4699999999999989</v>
-      </c>
-      <c r="W23" s="9">
-        <f t="shared" ref="W23:AB23" si="11">+W22*0.05</f>
-        <v>14.279000000000003</v>
-      </c>
-      <c r="X23" s="9">
-        <f t="shared" si="11"/>
-        <v>20.620990000000003</v>
-      </c>
       <c r="Y23" s="9">
-        <f t="shared" si="11"/>
-        <v>28.805159900000007</v>
+        <f>+Y22*0.05</f>
+        <v>2.7789999999999995</v>
       </c>
       <c r="Z23" s="9">
-        <f t="shared" si="11"/>
-        <v>32.622219499000011</v>
+        <f t="shared" ref="Z23:AE23" si="11">+Z22*0.05</f>
+        <v>10.242499999999998</v>
       </c>
       <c r="AA23" s="9">
         <f t="shared" si="11"/>
-        <v>36.830350493990018</v>
+        <v>15.373540000000004</v>
       </c>
       <c r="AB23" s="9">
         <f t="shared" si="11"/>
-        <v>39.425898578929925</v>
-      </c>
-    </row>
-    <row r="24" spans="2:85" x14ac:dyDescent="0.2">
+        <v>21.983474899999994</v>
+      </c>
+      <c r="AC23" s="9">
+        <f t="shared" si="11"/>
+        <v>25.118365999000005</v>
+      </c>
+      <c r="AD23" s="9">
+        <f t="shared" si="11"/>
+        <v>28.576111643990004</v>
+      </c>
+      <c r="AE23" s="9">
+        <f t="shared" si="11"/>
+        <v>30.758947786429907</v>
+      </c>
+    </row>
+    <row r="24" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U24" s="9">
-        <f>+U22-U23</f>
-        <v>-79.94</v>
-      </c>
-      <c r="V24" s="9">
-        <f t="shared" ref="V24:AB24" si="12">+V22-V23</f>
-        <v>103.92999999999998</v>
-      </c>
-      <c r="W24" s="9">
-        <f t="shared" si="12"/>
-        <v>271.30100000000004</v>
+        <v>60</v>
       </c>
       <c r="X24" s="9">
-        <f t="shared" si="12"/>
-        <v>391.79881</v>
+        <f>+X22-X23</f>
+        <v>-61.21999999999997</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" si="12"/>
-        <v>547.2980381000001</v>
+        <f t="shared" ref="Y24:AE24" si="12">+Y22-Y23</f>
+        <v>52.800999999999988</v>
       </c>
       <c r="Z24" s="9">
         <f t="shared" si="12"/>
-        <v>619.82217048100017</v>
+        <v>194.60749999999993</v>
       </c>
       <c r="AA24" s="9">
         <f t="shared" si="12"/>
-        <v>699.77665938581026</v>
+        <v>292.09726000000006</v>
       </c>
       <c r="AB24" s="9">
         <f t="shared" si="12"/>
-        <v>749.09207299966852</v>
+        <v>417.68602309999989</v>
       </c>
       <c r="AC24" s="9">
-        <f>AB24*(1+$AE$27)</f>
-        <v>741.60115226967184</v>
+        <f t="shared" si="12"/>
+        <v>477.24895398100006</v>
       </c>
       <c r="AD24" s="9">
-        <f t="shared" ref="AD24:CG24" si="13">AC24*(1+$AE$27)</f>
-        <v>734.18514074697509</v>
+        <f t="shared" si="12"/>
+        <v>542.9461212358101</v>
       </c>
       <c r="AE24" s="9">
-        <f t="shared" si="13"/>
-        <v>726.8432893395053</v>
+        <f t="shared" si="12"/>
+        <v>584.42000794216824</v>
       </c>
       <c r="AF24" s="9">
-        <f t="shared" si="13"/>
-        <v>719.57485644611029</v>
+        <f>AE24*(1+$AH$27)</f>
+        <v>578.5758078627465</v>
       </c>
       <c r="AG24" s="9">
-        <f t="shared" si="13"/>
-        <v>712.37910788164913</v>
+        <f t="shared" ref="AG24:CJ24" si="13">AF24*(1+$AH$27)</f>
+        <v>572.79004978411899</v>
       </c>
       <c r="AH24" s="9">
         <f t="shared" si="13"/>
-        <v>705.25531680283268</v>
+        <v>567.06214928627776</v>
       </c>
       <c r="AI24" s="9">
         <f t="shared" si="13"/>
-        <v>698.20276363480434</v>
+        <v>561.39152779341498</v>
       </c>
       <c r="AJ24" s="9">
         <f t="shared" si="13"/>
-        <v>691.22073599845635</v>
+        <v>555.77761251548077</v>
       </c>
       <c r="AK24" s="9">
         <f t="shared" si="13"/>
-        <v>684.30852863847178</v>
+        <v>550.21983639032601</v>
       </c>
       <c r="AL24" s="9">
         <f t="shared" si="13"/>
-        <v>677.46544335208705</v>
+        <v>544.71763802642272</v>
       </c>
       <c r="AM24" s="9">
         <f t="shared" si="13"/>
-        <v>670.69078891856623</v>
+        <v>539.27046164615854</v>
       </c>
       <c r="AN24" s="9">
         <f t="shared" si="13"/>
-        <v>663.98388102938054</v>
+        <v>533.87775702969691</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="13"/>
-        <v>657.34404221908676</v>
+        <v>528.53897945939991</v>
       </c>
       <c r="AP24" s="9">
         <f t="shared" si="13"/>
-        <v>650.7706017968959</v>
+        <v>523.25358966480587</v>
       </c>
       <c r="AQ24" s="9">
         <f t="shared" si="13"/>
-        <v>644.26289577892692</v>
+        <v>518.0210537681578</v>
       </c>
       <c r="AR24" s="9">
         <f t="shared" si="13"/>
-        <v>637.82026682113769</v>
+        <v>512.84084323047625</v>
       </c>
       <c r="AS24" s="9">
         <f t="shared" si="13"/>
-        <v>631.44206415292626</v>
+        <v>507.7124347981715</v>
       </c>
       <c r="AT24" s="9">
         <f t="shared" si="13"/>
-        <v>625.12764351139697</v>
+        <v>502.63531045018976</v>
       </c>
       <c r="AU24" s="9">
         <f t="shared" si="13"/>
-        <v>618.87636707628303</v>
+        <v>497.60895734568788</v>
       </c>
       <c r="AV24" s="9">
         <f t="shared" si="13"/>
-        <v>612.68760340552024</v>
+        <v>492.63286777223101</v>
       </c>
       <c r="AW24" s="9">
         <f t="shared" si="13"/>
-        <v>606.56072737146508</v>
+        <v>487.70653909450868</v>
       </c>
       <c r="AX24" s="9">
         <f t="shared" si="13"/>
-        <v>600.49512009775037</v>
+        <v>482.82947370356362</v>
       </c>
       <c r="AY24" s="9">
         <f t="shared" si="13"/>
-        <v>594.49016889677284</v>
+        <v>478.00117896652796</v>
       </c>
       <c r="AZ24" s="9">
         <f t="shared" si="13"/>
-        <v>588.54526720780507</v>
+        <v>473.22116717686265</v>
       </c>
       <c r="BA24" s="9">
         <f t="shared" si="13"/>
-        <v>582.65981453572704</v>
+        <v>468.488955505094</v>
       </c>
       <c r="BB24" s="9">
         <f t="shared" si="13"/>
-        <v>576.83321639036978</v>
+        <v>463.80406595004303</v>
       </c>
       <c r="BC24" s="9">
         <f t="shared" si="13"/>
-        <v>571.06488422646612</v>
+        <v>459.16602529054256</v>
       </c>
       <c r="BD24" s="9">
         <f t="shared" si="13"/>
-        <v>565.3542353842015</v>
+        <v>454.57436503763711</v>
       </c>
       <c r="BE24" s="9">
         <f t="shared" si="13"/>
-        <v>559.7006930303595</v>
+        <v>450.02862138726073</v>
       </c>
       <c r="BF24" s="9">
         <f t="shared" si="13"/>
-        <v>554.10368610005594</v>
+        <v>445.52833517338814</v>
       </c>
       <c r="BG24" s="9">
         <f t="shared" si="13"/>
-        <v>548.56264923905542</v>
+        <v>441.07305182165425</v>
       </c>
       <c r="BH24" s="9">
         <f t="shared" si="13"/>
-        <v>543.07702274666485</v>
+        <v>436.66232130343769</v>
       </c>
       <c r="BI24" s="9">
         <f t="shared" si="13"/>
-        <v>537.64625251919824</v>
+        <v>432.29569809040333</v>
       </c>
       <c r="BJ24" s="9">
         <f t="shared" si="13"/>
-        <v>532.26978999400626</v>
+        <v>427.97274110949928</v>
       </c>
       <c r="BK24" s="9">
         <f t="shared" si="13"/>
-        <v>526.94709209406619</v>
+        <v>423.69301369840429</v>
       </c>
       <c r="BL24" s="9">
         <f t="shared" si="13"/>
-        <v>521.67762117312554</v>
+        <v>419.45608356142026</v>
       </c>
       <c r="BM24" s="9">
         <f t="shared" si="13"/>
-        <v>516.46084496139429</v>
+        <v>415.26152272580606</v>
       </c>
       <c r="BN24" s="9">
         <f t="shared" si="13"/>
-        <v>511.29623651178036</v>
+        <v>411.10890749854798</v>
       </c>
       <c r="BO24" s="9">
         <f t="shared" si="13"/>
-        <v>506.18327414666254</v>
+        <v>406.99781842356248</v>
       </c>
       <c r="BP24" s="9">
         <f t="shared" si="13"/>
-        <v>501.12144140519592</v>
+        <v>402.92784023932683</v>
       </c>
       <c r="BQ24" s="9">
         <f t="shared" si="13"/>
-        <v>496.11022699114397</v>
+        <v>398.89856183693354</v>
       </c>
       <c r="BR24" s="9">
         <f t="shared" si="13"/>
-        <v>491.14912472123251</v>
+        <v>394.90957621856421</v>
       </c>
       <c r="BS24" s="9">
         <f t="shared" si="13"/>
-        <v>486.23763347402019</v>
+        <v>390.96048045637855</v>
       </c>
       <c r="BT24" s="9">
         <f t="shared" si="13"/>
-        <v>481.37525713928</v>
+        <v>387.05087565181475</v>
       </c>
       <c r="BU24" s="9">
         <f t="shared" si="13"/>
-        <v>476.5615045678872</v>
+        <v>383.18036689529657</v>
       </c>
       <c r="BV24" s="9">
         <f t="shared" si="13"/>
-        <v>471.79588952220831</v>
+        <v>379.34856322634363</v>
       </c>
       <c r="BW24" s="9">
         <f t="shared" si="13"/>
-        <v>467.07793062698624</v>
+        <v>375.55507759408022</v>
       </c>
       <c r="BX24" s="9">
         <f t="shared" si="13"/>
-        <v>462.40715132071637</v>
+        <v>371.79952681813938</v>
       </c>
       <c r="BY24" s="9">
         <f t="shared" si="13"/>
-        <v>457.78307980750918</v>
+        <v>368.08153154995802</v>
       </c>
       <c r="BZ24" s="9">
         <f t="shared" si="13"/>
-        <v>453.20524900943411</v>
+        <v>364.40071623445846</v>
       </c>
       <c r="CA24" s="9">
         <f t="shared" si="13"/>
-        <v>448.67319651933974</v>
+        <v>360.75670907211389</v>
       </c>
       <c r="CB24" s="9">
         <f t="shared" si="13"/>
-        <v>444.18646455414631</v>
+        <v>357.14914198139275</v>
       </c>
       <c r="CC24" s="9">
         <f t="shared" si="13"/>
-        <v>439.74459990860487</v>
+        <v>353.57765056157882</v>
       </c>
       <c r="CD24" s="9">
         <f t="shared" si="13"/>
-        <v>435.34715390951879</v>
+        <v>350.04187405596304</v>
       </c>
       <c r="CE24" s="9">
         <f t="shared" si="13"/>
-        <v>430.99368237042358</v>
+        <v>346.54145531540343</v>
       </c>
       <c r="CF24" s="9">
         <f t="shared" si="13"/>
-        <v>426.68374554671936</v>
+        <v>343.07604076224936</v>
       </c>
       <c r="CG24" s="9">
         <f t="shared" si="13"/>
-        <v>422.41690809125214</v>
-      </c>
-    </row>
-    <row r="25" spans="2:85" x14ac:dyDescent="0.2">
+        <v>339.64528035462689</v>
+      </c>
+      <c r="CH24" s="9">
+        <f t="shared" si="13"/>
+        <v>336.24882755108064</v>
+      </c>
+      <c r="CI24" s="9">
+        <f t="shared" si="13"/>
+        <v>332.88633927556981</v>
+      </c>
+      <c r="CJ24" s="9">
+        <f t="shared" si="13"/>
+        <v>329.55747588281412</v>
+      </c>
+    </row>
+    <row r="25" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="U25" s="1">
-        <f>+U24/U26</f>
-        <v>-1.4275</v>
-      </c>
-      <c r="V25" s="1">
-        <f t="shared" ref="V25:AB25" si="14">+V24/V26</f>
-        <v>1.8558928571428568</v>
-      </c>
-      <c r="W25" s="1">
-        <f t="shared" si="14"/>
-        <v>4.8446607142857152</v>
+      <c r="O25" s="5">
+        <v>56.883257</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="14"/>
-        <v>6.9964073214285714</v>
+        <f>+X24/X26</f>
+        <v>-1.0932142857142852</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="14"/>
-        <v>9.7731792517857166</v>
+        <f t="shared" ref="Y25:AE25" si="14">+Y24/Y26</f>
+        <v>0.9428749999999998</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" si="14"/>
-        <v>11.068253044303574</v>
+        <v>3.4751339285714273</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="14"/>
-        <v>12.496011774746611</v>
+        <v>5.2160225000000011</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="14"/>
-        <v>13.376644160708366</v>
-      </c>
-    </row>
-    <row r="26" spans="2:85" x14ac:dyDescent="0.2">
+        <v>7.4586789839285697</v>
+      </c>
+      <c r="AC25" s="1">
+        <f t="shared" si="14"/>
+        <v>8.5223027496607155</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" si="14"/>
+        <v>9.6954664506394668</v>
+      </c>
+      <c r="AE25" s="1">
+        <f t="shared" si="14"/>
+        <v>10.436071570395862</v>
+      </c>
+    </row>
+    <row r="26" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U26" s="9">
+        <v>61</v>
+      </c>
+      <c r="X26" s="9">
         <v>56</v>
       </c>
-      <c r="V26" s="9">
-        <f>+U26</f>
+      <c r="Y26" s="9">
+        <f>+X26</f>
         <v>56</v>
       </c>
-      <c r="W26" s="9">
-        <f t="shared" ref="W26:AB26" si="15">+V26</f>
-        <v>56</v>
-      </c>
-      <c r="X26" s="9">
-        <f t="shared" si="15"/>
-        <v>56</v>
-      </c>
-      <c r="Y26" s="9">
-        <f t="shared" si="15"/>
-        <v>56</v>
-      </c>
       <c r="Z26" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="Z26:AE26" si="15">+Y26</f>
         <v>56</v>
       </c>
       <c r="AA26" s="9">
@@ -2250,28 +2448,40 @@
         <f t="shared" si="15"/>
         <v>56</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AC26" s="9">
+        <f t="shared" si="15"/>
+        <v>56</v>
+      </c>
+      <c r="AD26" s="9">
+        <f t="shared" si="15"/>
+        <v>56</v>
+      </c>
+      <c r="AE26" s="9">
+        <f t="shared" si="15"/>
+        <v>56</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH26" s="21">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="AG27" t="s">
         <v>63</v>
       </c>
-      <c r="AE26" s="21">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="27" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="AD27" t="s">
+      <c r="AH27" s="21">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="2:88" x14ac:dyDescent="0.2">
+      <c r="AG28" t="s">
         <v>64</v>
       </c>
-      <c r="AE27" s="21">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="AD28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE28" s="7">
-        <f>NPV(AE26,V24:CG24)+Main!L5-Main!L6</f>
-        <v>6685.8178001009601</v>
+      <c r="AH28" s="7">
+        <f>NPV(AH26,Y24:CJ24)+Main!K5-Main!K6</f>
+        <v>4425.5470028423515</v>
       </c>
     </row>
   </sheetData>
@@ -2281,6 +2491,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
